--- a/data/trans_orig/IMC_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{958F7A81-E0CD-4401-B223-240477799AC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E60B5B8E-C2C9-4C24-97E2-E3A62D2ABF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A334B608-9CEA-45BF-89A0-FA2C8665BC47}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{51A3FFC3-013C-4486-9FA1-1CBB350B54C6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
   <si>
     <t>Población con sobrepeso u obesidad en 2007 (Tasa respuesta: 98,86%)</t>
   </si>
@@ -77,19 +77,19 @@
     <t>27,81%</t>
   </si>
   <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
   </si>
   <si>
     <t>21,12%</t>
@@ -98,1459 +98,1447 @@
     <t>18,66%</t>
   </si>
   <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>52,77%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2015 (Tasa respuesta: 95,54%)</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>50,56%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>69,25%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
     <t>23,89%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>78,88%</t>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
   </si>
   <si>
     <t>76,11%</t>
   </si>
   <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>57,36%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
   </si>
   <si>
     <t>61,78%</t>
   </si>
   <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
   </si>
   <si>
     <t>38,22%</t>
   </si>
   <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2015 (Tasa respuesta: 95,54%)</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
+    <t>34,93%</t>
   </si>
   <si>
     <t>31,37%</t>
   </si>
   <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
   </si>
   <si>
     <t>73,78%</t>
   </si>
   <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
   </si>
   <si>
     <t>74,98%</t>
   </si>
   <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
   </si>
   <si>
     <t>74,48%</t>
   </si>
   <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
   </si>
   <si>
     <t>26,22%</t>
   </si>
   <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
   </si>
   <si>
     <t>25,02%</t>
   </si>
   <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
   </si>
   <si>
     <t>25,52%</t>
   </si>
   <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
   </si>
   <si>
     <t>63,05%</t>
   </si>
   <si>
-    <t>61,01%</t>
+    <t>65,53%</t>
   </si>
   <si>
     <t>52,98%</t>
   </si>
   <si>
-    <t>58,14%</t>
+    <t>58,31%</t>
   </si>
   <si>
     <t>57,77%</t>
   </si>
   <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
   </si>
   <si>
     <t>36,95%</t>
   </si>
   <si>
-    <t>38,99%</t>
+    <t>34,47%</t>
   </si>
   <si>
     <t>47,02%</t>
   </si>
   <si>
-    <t>41,86%</t>
+    <t>41,69%</t>
   </si>
   <si>
     <t>42,23%</t>
   </si>
   <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
   </si>
 </sst>
 </file>
@@ -1962,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C006A4AD-7857-4665-8A12-567573A013E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE093CC6-71D0-4433-83BC-991ADED9C771}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2548,7 +2536,7 @@
         <v>350</v>
       </c>
       <c r="D13" s="7">
-        <v>369314</v>
+        <v>369315</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2569,10 +2557,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>629</v>
@@ -2581,13 +2569,13 @@
         <v>651695</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,13 +2590,13 @@
         <v>146949</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>216</v>
@@ -2617,13 +2605,13 @@
         <v>225332</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="M14" s="7">
         <v>347</v>
@@ -2632,13 +2620,13 @@
         <v>372282</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,7 +2638,7 @@
         <v>481</v>
       </c>
       <c r="D15" s="7">
-        <v>516263</v>
+        <v>516264</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2694,7 +2682,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2706,13 +2694,13 @@
         <v>298215</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>268</v>
@@ -2721,13 +2709,13 @@
         <v>271344</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>570</v>
@@ -2736,13 +2724,13 @@
         <v>569559</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2745,13 @@
         <v>85671</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -2772,13 +2760,13 @@
         <v>123634</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>206</v>
@@ -2787,13 +2775,13 @@
         <v>209305</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2837,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2861,13 +2849,13 @@
         <v>371752</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>508</v>
@@ -2876,13 +2864,13 @@
         <v>518049</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>896</v>
@@ -2891,13 +2879,13 @@
         <v>889802</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2900,13 @@
         <v>118707</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>135</v>
@@ -2927,13 +2915,13 @@
         <v>138312</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>257</v>
@@ -2942,13 +2930,13 @@
         <v>257019</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,13 +3004,13 @@
         <v>1924545</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="H22" s="7">
         <v>1540</v>
@@ -3031,28 +3019,28 @@
         <v>1575042</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>3444</v>
       </c>
       <c r="N22" s="7">
-        <v>3499588</v>
+        <v>3499587</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3055,13 @@
         <v>1319534</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>62</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>1715</v>
@@ -3082,13 +3070,13 @@
         <v>1757936</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>2993</v>
@@ -3097,13 +3085,13 @@
         <v>3077470</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,7 +3133,7 @@
         <v>6437</v>
       </c>
       <c r="N24" s="7">
-        <v>6577058</v>
+        <v>6577057</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3159,7 +3147,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3181,7 +3169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1BF6984-E5AE-4103-9A64-6C4C6EF9A393}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F6C140-4C6A-4B04-962C-252363A5D2FE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3198,7 +3186,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3305,13 +3293,13 @@
         <v>142851</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H4" s="7">
         <v>88</v>
@@ -3320,13 +3308,13 @@
         <v>87975</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M4" s="7">
         <v>230</v>
@@ -3335,13 +3323,13 @@
         <v>230825</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,13 +3344,13 @@
         <v>306343</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>326</v>
@@ -3371,13 +3359,13 @@
         <v>335061</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>625</v>
@@ -3386,13 +3374,13 @@
         <v>641404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,13 +3448,13 @@
         <v>358016</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H7" s="7">
         <v>214</v>
@@ -3475,13 +3463,13 @@
         <v>228645</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M7" s="7">
         <v>568</v>
@@ -3490,13 +3478,13 @@
         <v>586661</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3499,13 @@
         <v>324196</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>341</v>
@@ -3526,13 +3514,13 @@
         <v>365366</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>649</v>
@@ -3541,13 +3529,13 @@
         <v>689562</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3603,13 @@
         <v>471625</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H10" s="7">
         <v>319</v>
@@ -3630,13 +3618,13 @@
         <v>339415</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M10" s="7">
         <v>765</v>
@@ -3645,13 +3633,13 @@
         <v>811040</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +3654,13 @@
         <v>195263</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>328</v>
@@ -3681,13 +3669,13 @@
         <v>350662</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>519</v>
@@ -3696,13 +3684,13 @@
         <v>545925</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3758,13 @@
         <v>459501</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>302</v>
@@ -3785,13 +3773,13 @@
         <v>344350</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>713</v>
@@ -3800,13 +3788,13 @@
         <v>803851</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3809,13 @@
         <v>144922</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>221</v>
@@ -3836,13 +3824,13 @@
         <v>253878</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>350</v>
@@ -3851,13 +3839,13 @@
         <v>398800</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,7 +3901,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3925,13 +3913,13 @@
         <v>321160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>288</v>
@@ -3940,13 +3928,13 @@
         <v>313511</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>582</v>
@@ -3955,13 +3943,13 @@
         <v>634670</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +3964,13 @@
         <v>98210</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>107</v>
@@ -3991,13 +3979,13 @@
         <v>122921</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>197</v>
@@ -4006,13 +3994,13 @@
         <v>221132</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,7 +4056,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4080,13 +4068,13 @@
         <v>444471</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>506</v>
@@ -4095,28 +4083,28 @@
         <v>537314</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>906</v>
       </c>
       <c r="N19" s="7">
-        <v>981785</v>
+        <v>981786</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,13 +4119,13 @@
         <v>93781</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>116</v>
@@ -4146,13 +4134,13 @@
         <v>128444</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>201</v>
@@ -4161,13 +4149,13 @@
         <v>222225</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,7 +4197,7 @@
         <v>1107</v>
       </c>
       <c r="N21" s="7">
-        <v>1204010</v>
+        <v>1204011</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4235,13 +4223,13 @@
         <v>2197624</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>1717</v>
@@ -4250,13 +4238,13 @@
         <v>1851209</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>134</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M22" s="7">
         <v>3764</v>
@@ -4265,13 +4253,13 @@
         <v>4048833</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4274,13 @@
         <v>1162716</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H23" s="7">
         <v>1439</v>
@@ -4301,13 +4289,13 @@
         <v>1556333</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>126</v>
       </c>
       <c r="M23" s="7">
         <v>2541</v>
@@ -4316,13 +4304,13 @@
         <v>2719049</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,7 +4366,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4400,7 +4388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C996AD3-CA7A-405C-A878-AF6C667778E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C219D7F6-73DB-4C25-B651-0EB13C68C5E7}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4417,7 +4405,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4524,13 +4512,13 @@
         <v>102497</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>106</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>90</v>
@@ -4539,13 +4527,13 @@
         <v>86449</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>187</v>
@@ -4554,13 +4542,13 @@
         <v>188945</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>35</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4563,13 @@
         <v>302243</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>276</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H5" s="7">
         <v>301</v>
@@ -4590,13 +4578,13 @@
         <v>295867</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M5" s="7">
         <v>583</v>
@@ -4605,13 +4593,13 @@
         <v>598111</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>44</v>
+        <v>281</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4667,13 @@
         <v>259130</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H7" s="7">
         <v>215</v>
@@ -4694,13 +4682,13 @@
         <v>208862</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M7" s="7">
         <v>462</v>
@@ -4709,13 +4697,13 @@
         <v>467991</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4718,13 @@
         <v>316212</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7">
         <v>341</v>
@@ -4745,13 +4733,13 @@
         <v>331613</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="M8" s="7">
         <v>646</v>
@@ -4760,13 +4748,13 @@
         <v>647825</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4822,13 @@
         <v>402678</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
         <v>283</v>
@@ -4849,13 +4837,13 @@
         <v>277870</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M10" s="7">
         <v>668</v>
@@ -4864,13 +4852,13 @@
         <v>680548</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4873,13 @@
         <v>251812</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H11" s="7">
         <v>359</v>
@@ -4900,13 +4888,13 @@
         <v>360091</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M11" s="7">
         <v>599</v>
@@ -4915,13 +4903,13 @@
         <v>611903</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +4977,13 @@
         <v>437524</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>316</v>
@@ -5004,13 +4992,13 @@
         <v>341478</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>326</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="M13" s="7">
         <v>711</v>
@@ -5019,13 +5007,13 @@
         <v>779002</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5028,13 @@
         <v>189461</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H14" s="7">
         <v>265</v>
@@ -5055,13 +5043,13 @@
         <v>284963</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>138</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M14" s="7">
         <v>437</v>
@@ -5070,13 +5058,13 @@
         <v>474424</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,7 +5120,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5144,13 +5132,13 @@
         <v>349867</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>112</v>
+        <v>335</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>225</v>
+        <v>336</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>337</v>
       </c>
       <c r="H16" s="7">
         <v>290</v>
@@ -5159,13 +5147,13 @@
         <v>329730</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>602</v>
@@ -5174,13 +5162,13 @@
         <v>679596</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5183,13 @@
         <v>113910</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>122</v>
+        <v>344</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>345</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>235</v>
+        <v>346</v>
       </c>
       <c r="H17" s="7">
         <v>123</v>
@@ -5287,7 +5275,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5302,10 +5290,10 @@
         <v>353</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>200</v>
+        <v>354</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>430</v>
@@ -5314,7 +5302,7 @@
         <v>502831</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>355</v>
+        <v>180</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>356</v>
@@ -5326,7 +5314,7 @@
         <v>891</v>
       </c>
       <c r="N19" s="7">
-        <v>938865</v>
+        <v>938864</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>358</v>
@@ -5356,7 +5344,7 @@
         <v>362</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>209</v>
+        <v>363</v>
       </c>
       <c r="H20" s="7">
         <v>147</v>
@@ -5365,7 +5353,7 @@
         <v>178457</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>188</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>364</v>
@@ -5428,7 +5416,7 @@
         <v>1158</v>
       </c>
       <c r="N21" s="7">
-        <v>1229872</v>
+        <v>1229871</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5490,7 +5478,7 @@
         <v>376</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5493,13 @@
         <v>1286188</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H23" s="7">
         <v>1536</v>
@@ -5520,13 +5508,13 @@
         <v>1595107</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>383</v>
       </c>
       <c r="M23" s="7">
         <v>2755</v>
@@ -5535,13 +5523,13 @@
         <v>2881296</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,7 +5585,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5619,7 +5607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6A025C-7EF9-4971-B44A-E18BCF75D0B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FD20BB-7914-46A5-9C99-0F6D5FC1B62E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5636,7 +5624,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5743,13 +5731,13 @@
         <v>118586</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
@@ -5758,13 +5746,13 @@
         <v>75950</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M4" s="7">
         <v>98</v>
@@ -5773,13 +5761,13 @@
         <v>194536</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>394</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5782,13 @@
         <v>254525</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H5" s="7">
         <v>155</v>
@@ -5809,13 +5797,13 @@
         <v>268670</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="M5" s="7">
         <v>273</v>
@@ -5824,13 +5812,13 @@
         <v>523195</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>403</v>
+        <v>278</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5886,13 @@
         <v>217808</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H7" s="7">
         <v>174</v>
@@ -5913,13 +5901,13 @@
         <v>191473</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M7" s="7">
         <v>322</v>
@@ -5928,13 +5916,13 @@
         <v>409281</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>135</v>
+        <v>409</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>413</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5937,13 @@
         <v>209069</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="H8" s="7">
         <v>280</v>
@@ -5964,13 +5952,13 @@
         <v>301332</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="M8" s="7">
         <v>432</v>
@@ -5979,13 +5967,13 @@
         <v>510401</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>421</v>
+        <v>68</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>126</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6041,13 @@
         <v>311597</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H10" s="7">
         <v>348</v>
@@ -6068,13 +6056,13 @@
         <v>226539</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="M10" s="7">
         <v>655</v>
@@ -6083,13 +6071,13 @@
         <v>538137</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6092,13 @@
         <v>240551</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="H11" s="7">
         <v>491</v>
@@ -6119,13 +6107,13 @@
         <v>351934</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M11" s="7">
         <v>725</v>
@@ -6134,13 +6122,13 @@
         <v>592485</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6208,13 +6196,13 @@
         <v>510654</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H13" s="7">
         <v>575</v>
@@ -6223,13 +6211,13 @@
         <v>377666</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>441</v>
       </c>
       <c r="M13" s="7">
         <v>1028</v>
@@ -6238,13 +6226,13 @@
         <v>888321</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6247,13 @@
         <v>203234</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="H14" s="7">
         <v>536</v>
@@ -6274,13 +6262,13 @@
         <v>340074</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>449</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M14" s="7">
         <v>738</v>
@@ -6289,13 +6277,13 @@
         <v>543307</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,7 +6339,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6363,13 +6351,13 @@
         <v>440446</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>458</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>607</v>
@@ -6378,13 +6366,13 @@
         <v>357475</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>456</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>459</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M16" s="7">
         <v>1094</v>
@@ -6393,13 +6381,13 @@
         <v>797920</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6402,13 @@
         <v>143502</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>465</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="H17" s="7">
         <v>366</v>
@@ -6429,13 +6417,13 @@
         <v>221175</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>463</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>468</v>
+        <v>265</v>
       </c>
       <c r="M17" s="7">
         <v>524</v>
@@ -6444,13 +6432,13 @@
         <v>364678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,7 +6494,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6518,13 +6506,13 @@
         <v>493825</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H19" s="7">
         <v>1118</v>
@@ -6533,13 +6521,13 @@
         <v>708024</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M19" s="7">
         <v>1846</v>
@@ -6548,13 +6536,13 @@
         <v>1201849</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,13 +6557,13 @@
         <v>175506</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H20" s="7">
         <v>431</v>
@@ -6584,13 +6572,13 @@
         <v>236232</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="M20" s="7">
         <v>690</v>
@@ -6599,13 +6587,13 @@
         <v>411738</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,13 +6661,13 @@
         <v>2092914</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>52</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>178</v>
+        <v>487</v>
       </c>
       <c r="H22" s="7">
         <v>2870</v>
@@ -6688,13 +6676,13 @@
         <v>1937128</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M22" s="7">
         <v>5043</v>
@@ -6703,13 +6691,13 @@
         <v>4030042</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,13 +6712,13 @@
         <v>1226388</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>168</v>
+        <v>494</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>498</v>
+        <v>62</v>
       </c>
       <c r="H23" s="7">
         <v>2259</v>
@@ -6739,13 +6727,13 @@
         <v>1719416</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="M23" s="7">
         <v>3382</v>
@@ -6754,13 +6742,13 @@
         <v>2945804</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,7 +6804,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IMC_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E60B5B8E-C2C9-4C24-97E2-E3A62D2ABF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{743B112A-E0F9-40F3-BC1D-0DE111612EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{51A3FFC3-013C-4486-9FA1-1CBB350B54C6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0FFD9AC5-0F1C-4814-A186-966A57E9666E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
   <si>
     <t>Población con sobrepeso u obesidad en 2007 (Tasa respuesta: 98,86%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>27,81%</t>
   </si>
   <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
   </si>
   <si>
     <t>21,12%</t>
   </si>
   <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>72,19%</t>
   </si>
   <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
   </si>
   <si>
     <t>85,89%</t>
   </si>
   <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>78,88%</t>
   </si>
   <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>46,11%</t>
   </si>
   <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>50,05%</t>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
   </si>
   <si>
     <t>27,04%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
   </si>
   <si>
     <t>37,34%</t>
   </si>
   <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
   </si>
   <si>
     <t>53,89%</t>
   </si>
   <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
   </si>
   <si>
     <t>72,96%</t>
   </si>
   <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
   </si>
   <si>
     <t>62,66%</t>
   </si>
   <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,1333 +197,1357 @@
     <t>64,95%</t>
   </si>
   <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>54,34%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>36,27%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>63,73%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>70,67%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>57,01%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2016 (Tasa respuesta: 95,54%)</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>50,03%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>65,04%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>40,7%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>56,43%</t>
+  </si>
+  <si>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
     <t>61,12%</t>
   </si>
   <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>38,88%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>45,57%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2015 (Tasa respuesta: 95,54%)</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>39,04%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>50,56%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>69,25%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>62,43%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>37,57%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>51,76%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
   </si>
   <si>
     <t>47,02%</t>
@@ -1950,7 +1974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE093CC6-71D0-4433-83BC-991ADED9C771}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8860395D-96D0-433B-AA1A-7294BEE24218}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2557,10 +2581,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>629</v>
@@ -2569,13 +2593,13 @@
         <v>651695</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2614,13 @@
         <v>146949</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>216</v>
@@ -2605,13 +2629,13 @@
         <v>225332</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>347</v>
@@ -2620,13 +2644,13 @@
         <v>372282</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,7 +2706,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2694,13 +2718,13 @@
         <v>298215</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>268</v>
@@ -2709,13 +2733,13 @@
         <v>271344</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>570</v>
@@ -2724,13 +2748,13 @@
         <v>569559</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,13 +2769,13 @@
         <v>85671</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -2760,13 +2784,13 @@
         <v>123634</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>206</v>
@@ -2775,13 +2799,13 @@
         <v>209305</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2837,7 +2861,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2849,13 +2873,13 @@
         <v>371752</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>508</v>
@@ -2864,13 +2888,13 @@
         <v>518049</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>896</v>
@@ -2879,13 +2903,13 @@
         <v>889802</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,13 +2924,13 @@
         <v>118707</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>135</v>
@@ -2915,13 +2939,13 @@
         <v>138312</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>257</v>
@@ -2930,13 +2954,13 @@
         <v>257019</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3028,13 @@
         <v>1924545</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>52</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>1540</v>
@@ -3019,13 +3043,13 @@
         <v>1575042</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>3444</v>
@@ -3034,13 +3058,13 @@
         <v>3499587</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3079,13 @@
         <v>1319534</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>1715</v>
@@ -3070,13 +3094,13 @@
         <v>1757936</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>2993</v>
@@ -3085,13 +3109,13 @@
         <v>3077470</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,7 +3171,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3169,7 +3193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F6C140-4C6A-4B04-962C-252363A5D2FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B985BE3F-E08E-4A53-B5EA-15EB61751C7E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3186,7 +3210,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3293,13 +3317,13 @@
         <v>142851</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H4" s="7">
         <v>88</v>
@@ -3308,13 +3332,13 @@
         <v>87975</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M4" s="7">
         <v>230</v>
@@ -3323,13 +3347,13 @@
         <v>230825</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,28 +3368,28 @@
         <v>306343</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>326</v>
       </c>
       <c r="I5" s="7">
-        <v>335061</v>
+        <v>335060</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M5" s="7">
         <v>625</v>
@@ -3374,13 +3398,13 @@
         <v>641404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,7 +3431,7 @@
         <v>414</v>
       </c>
       <c r="I6" s="7">
-        <v>423036</v>
+        <v>423035</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3448,13 +3472,13 @@
         <v>358016</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>214</v>
@@ -3463,13 +3487,13 @@
         <v>228645</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M7" s="7">
         <v>568</v>
@@ -3478,13 +3502,13 @@
         <v>586661</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3523,13 @@
         <v>324196</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>341</v>
@@ -3514,13 +3538,13 @@
         <v>365366</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>649</v>
@@ -3529,13 +3553,13 @@
         <v>689562</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3627,13 @@
         <v>471625</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>319</v>
@@ -3618,13 +3642,13 @@
         <v>339415</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>765</v>
@@ -3633,13 +3657,13 @@
         <v>811040</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3678,13 @@
         <v>195263</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>328</v>
@@ -3669,13 +3693,13 @@
         <v>350662</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>519</v>
@@ -3684,13 +3708,13 @@
         <v>545925</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3782,13 @@
         <v>459501</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>302</v>
@@ -3773,13 +3797,13 @@
         <v>344350</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>713</v>
@@ -3788,13 +3812,13 @@
         <v>803851</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +3833,13 @@
         <v>144922</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>221</v>
@@ -3824,13 +3848,13 @@
         <v>253878</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>350</v>
@@ -3839,13 +3863,13 @@
         <v>398800</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,7 +3925,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3913,13 +3937,13 @@
         <v>321160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>288</v>
@@ -3928,13 +3952,13 @@
         <v>313511</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>582</v>
@@ -3943,13 +3967,13 @@
         <v>634670</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3988,13 @@
         <v>98210</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>107</v>
@@ -3979,13 +4003,13 @@
         <v>122921</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M17" s="7">
         <v>197</v>
@@ -3994,13 +4018,13 @@
         <v>221132</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,7 +4080,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4068,13 +4092,13 @@
         <v>444471</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H19" s="7">
         <v>506</v>
@@ -4083,13 +4107,13 @@
         <v>537314</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M19" s="7">
         <v>906</v>
@@ -4098,13 +4122,13 @@
         <v>981786</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4143,13 @@
         <v>93781</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>116</v>
@@ -4134,13 +4158,13 @@
         <v>128444</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M20" s="7">
         <v>201</v>
@@ -4149,13 +4173,13 @@
         <v>222225</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4247,13 @@
         <v>2197624</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H22" s="7">
         <v>1717</v>
@@ -4238,13 +4262,13 @@
         <v>1851209</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>134</v>
+        <v>256</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M22" s="7">
         <v>3764</v>
@@ -4253,13 +4277,13 @@
         <v>4048833</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4298,13 @@
         <v>1162716</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>1439</v>
@@ -4289,13 +4313,13 @@
         <v>1556333</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>126</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>2541</v>
@@ -4304,13 +4328,13 @@
         <v>2719049</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,7 +4390,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4388,7 +4412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C219D7F6-73DB-4C25-B651-0EB13C68C5E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87586E9-E1F3-42DE-9F04-5368DAFA5A12}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4405,7 +4429,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4512,13 +4536,13 @@
         <v>102497</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>90</v>
@@ -4527,13 +4551,13 @@
         <v>86449</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>187</v>
@@ -4542,13 +4566,13 @@
         <v>188945</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4563,13 +4587,13 @@
         <v>302243</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>301</v>
@@ -4578,13 +4602,13 @@
         <v>295867</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>583</v>
@@ -4593,13 +4617,13 @@
         <v>598111</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4691,13 @@
         <v>259130</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H7" s="7">
         <v>215</v>
@@ -4682,13 +4706,13 @@
         <v>208862</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M7" s="7">
         <v>462</v>
@@ -4697,13 +4721,13 @@
         <v>467991</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4742,13 @@
         <v>316212</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H8" s="7">
         <v>341</v>
@@ -4733,13 +4757,13 @@
         <v>331613</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="M8" s="7">
         <v>646</v>
@@ -4748,13 +4772,13 @@
         <v>647825</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4822,13 +4846,13 @@
         <v>402678</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>283</v>
@@ -4837,13 +4861,13 @@
         <v>277870</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="M10" s="7">
         <v>668</v>
@@ -4852,13 +4876,13 @@
         <v>680548</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4897,13 @@
         <v>251812</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H11" s="7">
         <v>359</v>
@@ -4888,13 +4912,13 @@
         <v>360091</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>599</v>
@@ -4903,13 +4927,13 @@
         <v>611903</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +5001,13 @@
         <v>437524</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>96</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="H13" s="7">
         <v>316</v>
@@ -4992,13 +5016,13 @@
         <v>341478</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>131</v>
+        <v>325</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>323</v>
+        <v>259</v>
       </c>
       <c r="M13" s="7">
         <v>711</v>
@@ -5007,13 +5031,13 @@
         <v>779002</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5052,13 @@
         <v>189461</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>106</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H14" s="7">
         <v>265</v>
@@ -5043,13 +5067,13 @@
         <v>284963</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>138</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>269</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
         <v>437</v>
@@ -5058,13 +5082,13 @@
         <v>474424</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,7 +5144,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5132,13 +5156,13 @@
         <v>349867</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H16" s="7">
         <v>290</v>
@@ -5147,13 +5171,13 @@
         <v>329730</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M16" s="7">
         <v>602</v>
@@ -5162,13 +5186,13 @@
         <v>679596</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,7 +5207,7 @@
         <v>113910</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>80</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>345</v>
@@ -5275,7 +5299,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5290,10 +5314,10 @@
         <v>353</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>430</v>
@@ -5302,7 +5326,7 @@
         <v>502831</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>180</v>
+        <v>355</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>356</v>
@@ -5314,7 +5338,7 @@
         <v>891</v>
       </c>
       <c r="N19" s="7">
-        <v>938864</v>
+        <v>938865</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>358</v>
@@ -5344,7 +5368,7 @@
         <v>362</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>363</v>
+        <v>207</v>
       </c>
       <c r="H20" s="7">
         <v>147</v>
@@ -5353,7 +5377,7 @@
         <v>178457</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>188</v>
+        <v>363</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>364</v>
@@ -5416,7 +5440,7 @@
         <v>1158</v>
       </c>
       <c r="N21" s="7">
-        <v>1229871</v>
+        <v>1229872</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5478,7 +5502,7 @@
         <v>376</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>199</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5517,13 @@
         <v>1286188</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H23" s="7">
         <v>1536</v>
@@ -5508,13 +5532,13 @@
         <v>1595107</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M23" s="7">
         <v>2755</v>
@@ -5523,13 +5547,13 @@
         <v>2881296</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>208</v>
+        <v>385</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,7 +5609,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5607,7 +5631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7FD20BB-7914-46A5-9C99-0F6D5FC1B62E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F58D5C-F493-47F9-AA7F-CBEAE3F4E990}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5624,7 +5648,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5731,13 +5755,13 @@
         <v>118586</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
@@ -5746,13 +5770,13 @@
         <v>75950</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M4" s="7">
         <v>98</v>
@@ -5761,13 +5785,13 @@
         <v>194536</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>271</v>
+        <v>394</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5806,13 @@
         <v>254525</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H5" s="7">
         <v>155</v>
@@ -5797,13 +5821,13 @@
         <v>268670</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M5" s="7">
         <v>273</v>
@@ -5812,13 +5836,13 @@
         <v>523195</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>278</v>
+        <v>403</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5910,13 @@
         <v>217808</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H7" s="7">
         <v>174</v>
@@ -5901,13 +5925,13 @@
         <v>191473</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M7" s="7">
         <v>322</v>
@@ -5916,13 +5940,13 @@
         <v>409281</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>58</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5961,13 @@
         <v>209069</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="H8" s="7">
         <v>280</v>
@@ -5952,13 +5976,13 @@
         <v>301332</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="M8" s="7">
         <v>432</v>
@@ -5967,13 +5991,13 @@
         <v>510401</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>68</v>
+        <v>422</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6041,13 +6065,13 @@
         <v>311597</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H10" s="7">
         <v>348</v>
@@ -6056,13 +6080,13 @@
         <v>226539</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="M10" s="7">
         <v>655</v>
@@ -6071,13 +6095,13 @@
         <v>538137</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6092,13 +6116,13 @@
         <v>240551</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="H11" s="7">
         <v>491</v>
@@ -6107,13 +6131,13 @@
         <v>351934</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="M11" s="7">
         <v>725</v>
@@ -6122,13 +6146,13 @@
         <v>592485</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6220,13 @@
         <v>510654</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="H13" s="7">
         <v>575</v>
@@ -6211,13 +6235,13 @@
         <v>377666</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="M13" s="7">
         <v>1028</v>
@@ -6226,13 +6250,13 @@
         <v>888321</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6271,13 @@
         <v>203234</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="H14" s="7">
         <v>536</v>
@@ -6262,13 +6286,13 @@
         <v>340074</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="M14" s="7">
         <v>738</v>
@@ -6277,13 +6301,13 @@
         <v>543307</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,7 +6363,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6351,13 +6375,13 @@
         <v>440446</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H16" s="7">
         <v>607</v>
@@ -6366,13 +6390,13 @@
         <v>357475</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>256</v>
+        <v>463</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>457</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>1094</v>
@@ -6381,13 +6405,13 @@
         <v>797920</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6426,13 @@
         <v>143502</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="H17" s="7">
         <v>366</v>
@@ -6417,13 +6441,13 @@
         <v>221175</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>265</v>
+        <v>470</v>
       </c>
       <c r="M17" s="7">
         <v>524</v>
@@ -6432,13 +6456,13 @@
         <v>364678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6494,7 +6518,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6506,13 +6530,13 @@
         <v>493825</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="H19" s="7">
         <v>1118</v>
@@ -6521,13 +6545,13 @@
         <v>708024</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="M19" s="7">
         <v>1846</v>
@@ -6536,13 +6560,13 @@
         <v>1201849</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,13 +6581,13 @@
         <v>175506</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="H20" s="7">
         <v>431</v>
@@ -6572,13 +6596,13 @@
         <v>236232</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="M20" s="7">
         <v>690</v>
@@ -6587,13 +6611,13 @@
         <v>411738</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6661,13 +6685,13 @@
         <v>2092914</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>52</v>
+        <v>493</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="H22" s="7">
         <v>2870</v>
@@ -6676,13 +6700,13 @@
         <v>1937128</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="M22" s="7">
         <v>5043</v>
@@ -6691,13 +6715,13 @@
         <v>4030042</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6736,13 @@
         <v>1226388</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>62</v>
+        <v>502</v>
       </c>
       <c r="H23" s="7">
         <v>2259</v>
@@ -6727,13 +6751,13 @@
         <v>1719416</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="M23" s="7">
         <v>3382</v>
@@ -6742,13 +6766,13 @@
         <v>2945804</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6804,7 +6828,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IMC_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{743B112A-E0F9-40F3-BC1D-0DE111612EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D6A403F-4607-418D-A740-0989A476A58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0FFD9AC5-0F1C-4814-A186-966A57E9666E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{50C095AD-420A-46B7-845B-B0962EE7C95A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="504">
   <si>
     <t>Población con sobrepeso u obesidad en 2007 (Tasa respuesta: 98,86%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>27,81%</t>
   </si>
   <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>21,12%</t>
   </si>
   <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>72,19%</t>
   </si>
   <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
   </si>
   <si>
     <t>85,89%</t>
   </si>
   <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
   </si>
   <si>
     <t>78,88%</t>
   </si>
   <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1183 +140,1177 @@
     <t>46,11%</t>
   </si>
   <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
   </si>
   <si>
     <t>27,04%</t>
   </si>
   <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
   </si>
   <si>
     <t>37,34%</t>
   </si>
   <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
     <t>34,54%</t>
   </si>
   <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
   </si>
   <si>
     <t>65,46%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>54,34%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2016 (Tasa respuesta: 95,54%)</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
   </si>
   <si>
     <t>69,78%</t>
   </si>
   <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
   </si>
   <si>
     <t>30,22%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>75,8%</t>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
   </si>
   <si>
     <t>71,67%</t>
   </si>
   <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>36,27%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>63,73%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>70,67%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2016 (Tasa respuesta: 95,54%)</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>50,03%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>65,04%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>40,7%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>55,13%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>49,48%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
+    <t>83,3%</t>
   </si>
   <si>
     <t>72,9%</t>
   </si>
   <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
   </si>
   <si>
     <t>51,02%</t>
   </si>
   <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
   </si>
   <si>
     <t>38,85%</t>
   </si>
   <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
   </si>
   <si>
     <t>44,5%</t>
   </si>
   <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
+    <t>49,01%</t>
   </si>
   <si>
     <t>48,98%</t>
   </si>
   <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
   </si>
   <si>
     <t>61,15%</t>
   </si>
   <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
   </si>
   <si>
     <t>55,5%</t>
   </si>
   <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
+    <t>50,99%</t>
   </si>
   <si>
     <t>56,43%</t>
   </si>
   <si>
-    <t>51,76%</t>
+    <t>52,14%</t>
   </si>
   <si>
     <t>60,87%</t>
@@ -1325,19 +1319,19 @@
     <t>39,16%</t>
   </si>
   <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
   </si>
   <si>
     <t>47,6%</t>
   </si>
   <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
   </si>
   <si>
     <t>43,57%</t>
@@ -1346,223 +1340,217 @@
     <t>39,13%</t>
   </si>
   <si>
-    <t>48,24%</t>
+    <t>47,86%</t>
   </si>
   <si>
     <t>60,84%</t>
   </si>
   <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
   </si>
   <si>
     <t>52,4%</t>
   </si>
   <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>54,99%</t>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
   </si>
   <si>
     <t>71,53%</t>
   </si>
   <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
   </si>
   <si>
     <t>52,62%</t>
   </si>
   <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
+    <t>49,1%</t>
   </si>
   <si>
     <t>62,05%</t>
   </si>
   <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
   </si>
   <si>
     <t>28,47%</t>
   </si>
   <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
   </si>
   <si>
     <t>47,38%</t>
   </si>
   <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
+    <t>50,9%</t>
   </si>
   <si>
     <t>37,95%</t>
   </si>
   <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
   </si>
   <si>
     <t>75,43%</t>
   </si>
   <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
   </si>
   <si>
     <t>68,63%</t>
   </si>
   <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
   </si>
   <si>
     <t>24,57%</t>
   </si>
   <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
   </si>
   <si>
     <t>31,37%</t>
   </si>
   <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
   </si>
   <si>
     <t>73,78%</t>
   </si>
   <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
   </si>
   <si>
     <t>74,98%</t>
   </si>
   <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>74,48%</t>
   </si>
   <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
   </si>
   <si>
     <t>26,22%</t>
   </si>
   <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
   </si>
   <si>
     <t>25,02%</t>
   </si>
   <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
   </si>
   <si>
     <t>25,52%</t>
   </si>
   <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
   </si>
   <si>
     <t>63,05%</t>
   </si>
   <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
+    <t>61,01%</t>
   </si>
   <si>
     <t>52,98%</t>
   </si>
   <si>
-    <t>58,31%</t>
+    <t>58,14%</t>
   </si>
   <si>
     <t>57,77%</t>
   </si>
   <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
   </si>
   <si>
     <t>36,95%</t>
   </si>
   <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
+    <t>38,99%</t>
   </si>
   <si>
     <t>47,02%</t>
   </si>
   <si>
-    <t>41,69%</t>
+    <t>41,86%</t>
   </si>
   <si>
     <t>42,23%</t>
   </si>
   <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
   </si>
 </sst>
 </file>
@@ -1974,7 +1962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8860395D-96D0-433B-AA1A-7294BEE24218}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948ACC7C-734E-4FCF-ABCA-221B9F990445}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2560,7 +2548,7 @@
         <v>350</v>
       </c>
       <c r="D13" s="7">
-        <v>369315</v>
+        <v>369314</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2662,7 +2650,7 @@
         <v>481</v>
       </c>
       <c r="D15" s="7">
-        <v>516264</v>
+        <v>516263</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3055,7 +3043,7 @@
         <v>3444</v>
       </c>
       <c r="N22" s="7">
-        <v>3499587</v>
+        <v>3499588</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>132</v>
@@ -3100,7 +3088,7 @@
         <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>2993</v>
@@ -3109,13 +3097,13 @@
         <v>3077470</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3157,7 +3145,7 @@
         <v>6437</v>
       </c>
       <c r="N24" s="7">
-        <v>6577057</v>
+        <v>6577058</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3171,7 +3159,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3193,7 +3181,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B985BE3F-E08E-4A53-B5EA-15EB61751C7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576B6747-DF35-4CC4-A77E-4695BAE37BDC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3210,7 +3198,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3317,13 +3305,13 @@
         <v>142851</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>88</v>
@@ -3332,13 +3320,13 @@
         <v>87975</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>230</v>
@@ -3347,13 +3335,13 @@
         <v>230825</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,28 +3356,28 @@
         <v>306343</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>326</v>
       </c>
       <c r="I5" s="7">
-        <v>335060</v>
+        <v>335061</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>625</v>
@@ -3398,13 +3386,13 @@
         <v>641404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,7 +3419,7 @@
         <v>414</v>
       </c>
       <c r="I6" s="7">
-        <v>423035</v>
+        <v>423036</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3472,13 +3460,13 @@
         <v>358016</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>214</v>
@@ -3487,13 +3475,13 @@
         <v>228645</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>568</v>
@@ -3502,13 +3490,13 @@
         <v>586661</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3511,13 @@
         <v>324196</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>341</v>
@@ -3538,13 +3526,13 @@
         <v>365366</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>649</v>
@@ -3553,13 +3541,13 @@
         <v>689562</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3615,13 @@
         <v>471625</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>319</v>
@@ -3642,13 +3630,13 @@
         <v>339415</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>765</v>
@@ -3657,13 +3645,13 @@
         <v>811040</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3666,13 @@
         <v>195263</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>328</v>
@@ -3693,13 +3681,13 @@
         <v>350662</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>519</v>
@@ -3708,13 +3696,13 @@
         <v>545925</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3770,13 @@
         <v>459501</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>302</v>
@@ -3797,13 +3785,13 @@
         <v>344350</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>713</v>
@@ -3812,13 +3800,13 @@
         <v>803851</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3821,13 @@
         <v>144922</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>221</v>
@@ -3848,13 +3836,13 @@
         <v>253878</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>350</v>
@@ -3863,13 +3851,13 @@
         <v>398800</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3925,13 @@
         <v>321160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>288</v>
@@ -3952,13 +3940,13 @@
         <v>313511</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>582</v>
@@ -3967,13 +3955,13 @@
         <v>634670</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +3976,13 @@
         <v>98210</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>107</v>
@@ -4003,13 +3991,13 @@
         <v>122921</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>197</v>
@@ -4018,13 +4006,13 @@
         <v>221132</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4080,13 @@
         <v>444471</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>506</v>
@@ -4107,28 +4095,28 @@
         <v>537314</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>906</v>
       </c>
       <c r="N19" s="7">
-        <v>981786</v>
+        <v>981785</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4131,13 @@
         <v>93781</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>116</v>
@@ -4158,13 +4146,13 @@
         <v>128444</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>201</v>
@@ -4173,13 +4161,13 @@
         <v>222225</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,7 +4209,7 @@
         <v>1107</v>
       </c>
       <c r="N21" s="7">
-        <v>1204011</v>
+        <v>1204010</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4247,13 +4235,13 @@
         <v>2197624</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>1717</v>
@@ -4262,13 +4250,13 @@
         <v>1851209</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>3764</v>
@@ -4277,13 +4265,13 @@
         <v>4048833</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4286,13 @@
         <v>1162716</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>1439</v>
@@ -4313,13 +4301,13 @@
         <v>1556333</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>2541</v>
@@ -4328,13 +4316,13 @@
         <v>2719049</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,7 +4378,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4412,7 +4400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87586E9-E1F3-42DE-9F04-5368DAFA5A12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49F27ED-2E99-4A7C-927B-417B92E3D606}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4429,7 +4417,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4536,13 +4524,13 @@
         <v>102497</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
         <v>90</v>
@@ -4551,13 +4539,13 @@
         <v>86449</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M4" s="7">
         <v>187</v>
@@ -4566,13 +4554,13 @@
         <v>188945</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>279</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,10 +4578,10 @@
         <v>280</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H5" s="7">
         <v>301</v>
@@ -4602,13 +4590,13 @@
         <v>295867</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M5" s="7">
         <v>583</v>
@@ -4617,13 +4605,13 @@
         <v>598111</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4679,13 @@
         <v>259130</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H7" s="7">
         <v>215</v>
@@ -4706,13 +4694,13 @@
         <v>208862</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M7" s="7">
         <v>462</v>
@@ -4721,13 +4709,13 @@
         <v>467991</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4730,13 @@
         <v>316212</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H8" s="7">
         <v>341</v>
@@ -4757,13 +4745,13 @@
         <v>331613</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M8" s="7">
         <v>646</v>
@@ -4772,13 +4760,13 @@
         <v>647825</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4834,13 @@
         <v>402678</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H10" s="7">
         <v>283</v>
@@ -4861,13 +4849,13 @@
         <v>277870</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M10" s="7">
         <v>668</v>
@@ -4876,13 +4864,13 @@
         <v>680548</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4885,13 @@
         <v>251812</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H11" s="7">
         <v>359</v>
@@ -4912,13 +4900,13 @@
         <v>360091</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>599</v>
@@ -5001,13 +4989,13 @@
         <v>437524</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>96</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H13" s="7">
         <v>316</v>
@@ -5016,13 +5004,13 @@
         <v>341478</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>259</v>
+        <v>328</v>
       </c>
       <c r="M13" s="7">
         <v>711</v>
@@ -5031,13 +5019,13 @@
         <v>779002</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5040,13 @@
         <v>189461</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>106</v>
+        <v>332</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>265</v>
@@ -5067,13 +5055,13 @@
         <v>284963</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M14" s="7">
         <v>437</v>
@@ -5082,13 +5070,13 @@
         <v>474424</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,13 +5144,13 @@
         <v>349867</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>337</v>
+        <v>225</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>338</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>290</v>
@@ -5171,13 +5159,13 @@
         <v>329730</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M16" s="7">
         <v>602</v>
@@ -5186,13 +5174,13 @@
         <v>679596</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5195,13 @@
         <v>113910</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>123</v>
@@ -5314,7 +5302,7 @@
         <v>353</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>354</v>
@@ -5368,7 +5356,7 @@
         <v>362</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H20" s="7">
         <v>147</v>
@@ -5609,7 +5597,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5631,7 +5619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F58D5C-F493-47F9-AA7F-CBEAE3F4E990}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43400D2-9EB7-42BC-A1FF-695F974EA95D}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5943,10 +5931,10 @@
         <v>412</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +5949,13 @@
         <v>209069</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H8" s="7">
         <v>280</v>
@@ -5976,13 +5964,13 @@
         <v>301332</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="M8" s="7">
         <v>432</v>
@@ -5991,13 +5979,13 @@
         <v>510401</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>422</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>423</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6053,13 @@
         <v>311597</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>426</v>
       </c>
       <c r="H10" s="7">
         <v>348</v>
@@ -6080,13 +6068,13 @@
         <v>226539</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="M10" s="7">
         <v>655</v>
@@ -6095,13 +6083,13 @@
         <v>538137</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6104,13 @@
         <v>240551</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="H11" s="7">
         <v>491</v>
@@ -6131,13 +6119,13 @@
         <v>351934</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="M11" s="7">
         <v>725</v>
@@ -6146,13 +6134,13 @@
         <v>592485</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>439</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6208,13 @@
         <v>510654</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="H13" s="7">
         <v>575</v>
@@ -6235,13 +6223,13 @@
         <v>377666</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>447</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>1028</v>
@@ -6250,13 +6238,13 @@
         <v>888321</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6259,13 @@
         <v>203234</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="H14" s="7">
         <v>536</v>
@@ -6286,13 +6274,13 @@
         <v>340074</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M14" s="7">
         <v>738</v>
@@ -6301,13 +6289,13 @@
         <v>543307</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6363,13 @@
         <v>440446</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>111</v>
+        <v>458</v>
       </c>
       <c r="H16" s="7">
         <v>607</v>
@@ -6390,13 +6378,13 @@
         <v>357475</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>462</v>
+        <v>205</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>460</v>
       </c>
       <c r="M16" s="7">
         <v>1094</v>
@@ -6405,13 +6393,13 @@
         <v>797920</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6414,13 @@
         <v>143502</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>120</v>
+        <v>465</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H17" s="7">
         <v>366</v>
@@ -6441,13 +6429,13 @@
         <v>221175</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>469</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>349</v>
+        <v>467</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M17" s="7">
         <v>524</v>
@@ -6456,13 +6444,13 @@
         <v>364678</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6518,13 @@
         <v>493825</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H19" s="7">
         <v>1118</v>
@@ -6545,13 +6533,13 @@
         <v>708024</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>479</v>
       </c>
       <c r="M19" s="7">
         <v>1846</v>
@@ -6560,13 +6548,13 @@
         <v>1201849</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>480</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,13 +6569,13 @@
         <v>175506</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>483</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="H20" s="7">
         <v>431</v>
@@ -6596,13 +6584,13 @@
         <v>236232</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="M20" s="7">
         <v>690</v>
@@ -6611,13 +6599,13 @@
         <v>411738</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>489</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6673,13 @@
         <v>2092914</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>494</v>
+        <v>178</v>
       </c>
       <c r="H22" s="7">
         <v>2870</v>
@@ -6700,13 +6688,13 @@
         <v>1937128</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M22" s="7">
         <v>5043</v>
@@ -6715,13 +6703,13 @@
         <v>4030042</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6724,13 @@
         <v>1226388</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>501</v>
+        <v>168</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="H23" s="7">
         <v>2259</v>
@@ -6751,13 +6739,13 @@
         <v>1719416</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="M23" s="7">
         <v>3382</v>
@@ -6766,13 +6754,13 @@
         <v>2945804</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,7 +6816,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IMC_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IMC_R2-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D6A403F-4607-418D-A740-0989A476A58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7468C28-615F-4092-808C-B1170E42DF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{50C095AD-420A-46B7-845B-B0962EE7C95A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A55B48EB-B97A-4E29-B28A-30A2A484C658}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="577">
   <si>
     <t>Población con sobrepeso u obesidad en 2007 (Tasa respuesta: 98,86%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>46,11%</t>
@@ -191,7 +191,7 @@
     <t>65,51%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>64,95%</t>
@@ -248,7 +248,7 @@
     <t>51,08%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>71,54%</t>
@@ -305,7 +305,7 @@
     <t>39,51%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>77,68%</t>
@@ -362,1195 +362,1414 @@
     <t>30,03%</t>
   </si>
   <si>
-    <t>65 y más</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>42,44%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2016 (Tasa respuesta: 95,54%)</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>58,06%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>43,56%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>55,47%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>56,44%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>76,04%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
   </si>
   <si>
     <t>75,8%</t>
   </si>
   <si>
-    <t>71,88%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2012 (Tasa respuesta: 96,9%)</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>63,78%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>57,56%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>42,44%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>61,0%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2016 (Tasa respuesta: 95,54%)</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>58,06%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>75,62%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>Población con sobrepeso u obesidad en 2023 (Tasa respuesta: 96,36%)</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>56,81%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>60,1%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
   </si>
 </sst>
 </file>
@@ -1962,8 +2181,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{948ACC7C-734E-4FCF-ABCA-221B9F990445}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBC657C-1B98-47E7-BACE-E4D4987FC1C5}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2855,10 +3074,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>388</v>
+        <v>225</v>
       </c>
       <c r="D19" s="7">
-        <v>371752</v>
+        <v>216836</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2870,10 +3089,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>508</v>
+        <v>289</v>
       </c>
       <c r="I19" s="7">
-        <v>518049</v>
+        <v>266295</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2885,10 +3104,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>896</v>
+        <v>514</v>
       </c>
       <c r="N19" s="7">
-        <v>889802</v>
+        <v>483131</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2906,10 +3125,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="D20" s="7">
-        <v>118707</v>
+        <v>70294</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2921,10 +3140,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="I20" s="7">
-        <v>138312</v>
+        <v>73336</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2936,10 +3155,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>257</v>
+        <v>151</v>
       </c>
       <c r="N20" s="7">
-        <v>257019</v>
+        <v>143630</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2957,10 +3176,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>510</v>
+        <v>297</v>
       </c>
       <c r="D21" s="7">
-        <v>490459</v>
+        <v>287130</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2972,10 +3191,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>643</v>
+        <v>368</v>
       </c>
       <c r="I21" s="7">
-        <v>656361</v>
+        <v>339631</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2987,10 +3206,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1153</v>
+        <v>665</v>
       </c>
       <c r="N21" s="7">
-        <v>1146821</v>
+        <v>626761</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3004,55 +3223,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1904</v>
+        <v>163</v>
       </c>
       <c r="D22" s="7">
-        <v>1924545</v>
+        <v>154917</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>1540</v>
+        <v>219</v>
       </c>
       <c r="I22" s="7">
-        <v>1575042</v>
+        <v>251755</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>3444</v>
+        <v>382</v>
       </c>
       <c r="N22" s="7">
-        <v>3499588</v>
+        <v>406671</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,49 +3280,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1278</v>
+        <v>50</v>
       </c>
       <c r="D23" s="7">
-        <v>1319534</v>
+        <v>48412</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>1715</v>
+        <v>56</v>
       </c>
       <c r="I23" s="7">
-        <v>1757936</v>
+        <v>64976</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>2993</v>
+        <v>106</v>
       </c>
       <c r="N23" s="7">
-        <v>3077470</v>
+        <v>113389</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,63 +3331,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>213</v>
+      </c>
+      <c r="D24" s="7">
+        <v>203329</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>275</v>
+      </c>
+      <c r="I24" s="7">
+        <v>316731</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>488</v>
+      </c>
+      <c r="N24" s="7">
+        <v>520060</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1904</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1924545</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1540</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1575042</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3444</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3499587</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1278</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1319534</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1715</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1757936</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2993</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3077470</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3182</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3244079</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3255</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3332978</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6437</v>
       </c>
-      <c r="N24" s="7">
-        <v>6577058</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>6577057</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3181,8 +3556,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576B6747-DF35-4CC4-A77E-4695BAE37BDC}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87CA61BC-089F-4564-8B00-DFAC1567E6BF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3198,7 +3573,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3305,13 +3680,13 @@
         <v>142851</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
         <v>88</v>
@@ -3320,13 +3695,13 @@
         <v>87975</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="M4" s="7">
         <v>230</v>
@@ -3335,13 +3710,13 @@
         <v>230825</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,28 +3731,28 @@
         <v>306343</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H5" s="7">
         <v>326</v>
       </c>
       <c r="I5" s="7">
-        <v>335061</v>
+        <v>335060</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>625</v>
@@ -3386,13 +3761,13 @@
         <v>641404</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,7 +3794,7 @@
         <v>414</v>
       </c>
       <c r="I6" s="7">
-        <v>423036</v>
+        <v>423035</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3460,13 +3835,13 @@
         <v>358016</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>214</v>
@@ -3475,13 +3850,13 @@
         <v>228645</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>568</v>
@@ -3490,13 +3865,13 @@
         <v>586661</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3886,13 @@
         <v>324196</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>341</v>
@@ -3526,13 +3901,13 @@
         <v>365366</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>649</v>
@@ -3541,13 +3916,13 @@
         <v>689562</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3990,13 @@
         <v>471625</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>319</v>
@@ -3630,13 +4005,13 @@
         <v>339415</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>765</v>
@@ -3645,13 +4020,13 @@
         <v>811040</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,13 +4041,13 @@
         <v>195263</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>328</v>
@@ -3681,13 +4056,13 @@
         <v>350662</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>519</v>
@@ -3696,13 +4071,13 @@
         <v>545925</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +4145,13 @@
         <v>459501</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>302</v>
@@ -3785,13 +4160,13 @@
         <v>344350</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>713</v>
@@ -3800,13 +4175,13 @@
         <v>803851</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +4196,13 @@
         <v>144922</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>221</v>
@@ -3836,13 +4211,13 @@
         <v>253878</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>350</v>
@@ -3851,13 +4226,13 @@
         <v>398800</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +4300,13 @@
         <v>321160</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>288</v>
@@ -3940,28 +4315,28 @@
         <v>313511</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>582</v>
       </c>
       <c r="N16" s="7">
-        <v>634670</v>
+        <v>634671</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +4351,13 @@
         <v>98210</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>107</v>
@@ -3991,13 +4366,13 @@
         <v>122921</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>197</v>
@@ -4006,13 +4381,13 @@
         <v>221132</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,7 +4429,7 @@
         <v>779</v>
       </c>
       <c r="N18" s="7">
-        <v>855802</v>
+        <v>855803</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4074,49 +4449,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>400</v>
+        <v>236</v>
       </c>
       <c r="D19" s="7">
-        <v>444471</v>
+        <v>256838</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
-        <v>506</v>
+        <v>263</v>
       </c>
       <c r="I19" s="7">
-        <v>537314</v>
+        <v>267522</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>29</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
-        <v>906</v>
+        <v>499</v>
       </c>
       <c r="N19" s="7">
-        <v>981785</v>
+        <v>524360</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,49 +4500,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D20" s="7">
-        <v>93781</v>
+        <v>46473</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="I20" s="7">
-        <v>128444</v>
+        <v>61376</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>18</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="M20" s="7">
-        <v>201</v>
+        <v>96</v>
       </c>
       <c r="N20" s="7">
-        <v>222225</v>
+        <v>107849</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4176,10 +4551,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>485</v>
+        <v>276</v>
       </c>
       <c r="D21" s="7">
-        <v>538252</v>
+        <v>303311</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4191,10 +4566,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>622</v>
+        <v>319</v>
       </c>
       <c r="I21" s="7">
-        <v>665758</v>
+        <v>328898</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4206,10 +4581,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1107</v>
+        <v>595</v>
       </c>
       <c r="N21" s="7">
-        <v>1204010</v>
+        <v>632209</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4223,55 +4598,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2047</v>
+        <v>164</v>
       </c>
       <c r="D22" s="7">
-        <v>2197624</v>
+        <v>187633</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
-        <v>1717</v>
+        <v>243</v>
       </c>
       <c r="I22" s="7">
-        <v>1851209</v>
+        <v>269792</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
-        <v>3764</v>
+        <v>407</v>
       </c>
       <c r="N22" s="7">
-        <v>4048833</v>
+        <v>457425</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,49 +4655,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1102</v>
+        <v>45</v>
       </c>
       <c r="D23" s="7">
-        <v>1162716</v>
+        <v>47308</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
-        <v>1439</v>
+        <v>60</v>
       </c>
       <c r="I23" s="7">
-        <v>1556333</v>
+        <v>67069</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
-        <v>2541</v>
+        <v>105</v>
       </c>
       <c r="N23" s="7">
-        <v>2719049</v>
+        <v>114377</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,63 +4706,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>209</v>
+      </c>
+      <c r="D24" s="7">
+        <v>234941</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>303</v>
+      </c>
+      <c r="I24" s="7">
+        <v>336861</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>512</v>
+      </c>
+      <c r="N24" s="7">
+        <v>571802</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2047</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2197624</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1717</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1851209</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3764</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4048833</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1102</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1162716</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1439</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1556333</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2541</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2719049</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3149</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3360340</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3156</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3407542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6305</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6767882</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4400,8 +4931,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49F27ED-2E99-4A7C-927B-417B92E3D606}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE3D1E9-CC03-437A-A019-5736653633F2}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4417,7 +4948,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4524,10 +5055,10 @@
         <v>102497</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>106</v>
@@ -4539,13 +5070,13 @@
         <v>86449</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="M4" s="7">
         <v>187</v>
@@ -4554,10 +5085,10 @@
         <v>188945</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>35</v>
@@ -4575,13 +5106,13 @@
         <v>302243</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="H5" s="7">
         <v>301</v>
@@ -4590,13 +5121,13 @@
         <v>295867</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="M5" s="7">
         <v>583</v>
@@ -4605,13 +5136,13 @@
         <v>598111</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>44</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +5210,13 @@
         <v>259130</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="H7" s="7">
         <v>215</v>
@@ -4694,13 +5225,13 @@
         <v>208862</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="M7" s="7">
         <v>462</v>
@@ -4709,13 +5240,13 @@
         <v>467991</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +5261,13 @@
         <v>316212</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="H8" s="7">
         <v>341</v>
@@ -4745,13 +5276,13 @@
         <v>331613</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>646</v>
@@ -4760,13 +5291,13 @@
         <v>647825</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +5365,13 @@
         <v>402678</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="H10" s="7">
         <v>283</v>
@@ -4849,13 +5380,13 @@
         <v>277870</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="M10" s="7">
         <v>668</v>
@@ -4864,13 +5395,13 @@
         <v>680548</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +5416,13 @@
         <v>251812</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="H11" s="7">
         <v>359</v>
@@ -4900,13 +5431,13 @@
         <v>360091</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="M11" s="7">
         <v>599</v>
@@ -4915,13 +5446,13 @@
         <v>611903</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +5520,13 @@
         <v>437524</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="H13" s="7">
         <v>316</v>
@@ -5004,13 +5535,13 @@
         <v>341478</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="M13" s="7">
         <v>711</v>
@@ -5019,13 +5550,13 @@
         <v>779002</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5571,13 @@
         <v>189461</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="H14" s="7">
         <v>265</v>
@@ -5055,13 +5586,13 @@
         <v>284963</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="M14" s="7">
         <v>437</v>
@@ -5070,13 +5601,13 @@
         <v>474424</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5144,13 +5675,13 @@
         <v>349867</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>112</v>
+        <v>374</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>110</v>
+        <v>375</v>
       </c>
       <c r="H16" s="7">
         <v>290</v>
@@ -5159,13 +5690,13 @@
         <v>329730</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="M16" s="7">
         <v>602</v>
@@ -5174,13 +5705,13 @@
         <v>679596</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>346</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5726,13 @@
         <v>113910</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>122</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>118</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="H17" s="7">
         <v>123</v>
@@ -5210,13 +5741,13 @@
         <v>144117</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="M17" s="7">
         <v>223</v>
@@ -5225,13 +5756,13 @@
         <v>258027</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,49 +5824,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>461</v>
+        <v>253</v>
       </c>
       <c r="D19" s="7">
-        <v>436033</v>
+        <v>260794</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>200</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="H19" s="7">
-        <v>430</v>
+        <v>241</v>
       </c>
       <c r="I19" s="7">
-        <v>502831</v>
+        <v>253430</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="M19" s="7">
-        <v>891</v>
+        <v>494</v>
       </c>
       <c r="N19" s="7">
-        <v>938865</v>
+        <v>514224</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>358</v>
+        <v>394</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>359</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>360</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,49 +5875,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="D20" s="7">
-        <v>112550</v>
+        <v>57334</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>361</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>362</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>209</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="I20" s="7">
-        <v>178457</v>
+        <v>94070</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7">
-        <v>267</v>
+        <v>140</v>
       </c>
       <c r="N20" s="7">
-        <v>291007</v>
+        <v>151404</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5395,10 +5926,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>581</v>
+        <v>309</v>
       </c>
       <c r="D21" s="7">
-        <v>548583</v>
+        <v>318128</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5410,10 +5941,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>577</v>
+        <v>325</v>
       </c>
       <c r="I21" s="7">
-        <v>681288</v>
+        <v>347500</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5425,10 +5956,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1158</v>
+        <v>634</v>
       </c>
       <c r="N21" s="7">
-        <v>1229872</v>
+        <v>665628</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5442,55 +5973,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1897</v>
+        <v>208</v>
       </c>
       <c r="D22" s="7">
-        <v>1987728</v>
+        <v>175239</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>408</v>
       </c>
       <c r="H22" s="7">
-        <v>1624</v>
+        <v>189</v>
       </c>
       <c r="I22" s="7">
-        <v>1747221</v>
+        <v>249401</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>372</v>
+        <v>409</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>411</v>
       </c>
       <c r="M22" s="7">
-        <v>3521</v>
+        <v>397</v>
       </c>
       <c r="N22" s="7">
-        <v>3734948</v>
+        <v>424640</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>376</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5499,49 +6030,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1219</v>
+        <v>64</v>
       </c>
       <c r="D23" s="7">
-        <v>1286188</v>
+        <v>55216</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>378</v>
+        <v>415</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>416</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>380</v>
+        <v>417</v>
       </c>
       <c r="H23" s="7">
-        <v>1536</v>
+        <v>63</v>
       </c>
       <c r="I23" s="7">
-        <v>1595107</v>
+        <v>84387</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>420</v>
       </c>
       <c r="M23" s="7">
-        <v>2755</v>
+        <v>127</v>
       </c>
       <c r="N23" s="7">
-        <v>2881296</v>
+        <v>139603</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,63 +6081,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>272</v>
+      </c>
+      <c r="D24" s="7">
+        <v>230455</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>252</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333788</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>524</v>
+      </c>
+      <c r="N24" s="7">
+        <v>564243</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1897</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1987728</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1624</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1747221</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3521</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3734948</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1219</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1286188</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1536</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1595107</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2755</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2881296</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3116</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3273916</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3160</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3342328</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6276</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6616244</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5619,8 +6306,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F43400D2-9EB7-42BC-A1FF-695F974EA95D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCD40A8-2211-4778-93D0-C6E34BF2BD8D}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5636,7 +6323,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5740,46 +6427,46 @@
         <v>50</v>
       </c>
       <c r="D4" s="7">
-        <v>118586</v>
+        <v>131381</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
       <c r="H4" s="7">
         <v>48</v>
       </c>
       <c r="I4" s="7">
-        <v>75950</v>
+        <v>68332</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>392</v>
+        <v>447</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>393</v>
+        <v>448</v>
       </c>
       <c r="M4" s="7">
         <v>98</v>
       </c>
       <c r="N4" s="7">
-        <v>194536</v>
+        <v>199713</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,46 +6478,46 @@
         <v>118</v>
       </c>
       <c r="D5" s="7">
-        <v>254525</v>
+        <v>264149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
       <c r="H5" s="7">
         <v>155</v>
       </c>
       <c r="I5" s="7">
-        <v>268670</v>
+        <v>235916</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>400</v>
+        <v>455</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>401</v>
+        <v>456</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="M5" s="7">
         <v>273</v>
       </c>
       <c r="N5" s="7">
-        <v>523195</v>
+        <v>500065</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>403</v>
+        <v>458</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>404</v>
+        <v>459</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>405</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,7 +6529,7 @@
         <v>168</v>
       </c>
       <c r="D6" s="7">
-        <v>373111</v>
+        <v>395530</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5857,7 +6544,7 @@
         <v>203</v>
       </c>
       <c r="I6" s="7">
-        <v>344620</v>
+        <v>304248</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5872,7 +6559,7 @@
         <v>371</v>
       </c>
       <c r="N6" s="7">
-        <v>717731</v>
+        <v>699778</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5895,46 +6582,46 @@
         <v>148</v>
       </c>
       <c r="D7" s="7">
-        <v>217808</v>
+        <v>219163</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>406</v>
+        <v>461</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>407</v>
+        <v>462</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>408</v>
+        <v>463</v>
       </c>
       <c r="H7" s="7">
         <v>174</v>
       </c>
       <c r="I7" s="7">
-        <v>191473</v>
+        <v>232195</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="M7" s="7">
         <v>322</v>
       </c>
       <c r="N7" s="7">
-        <v>409281</v>
+        <v>451358</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>135</v>
+        <v>468</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,46 +6633,46 @@
         <v>152</v>
       </c>
       <c r="D8" s="7">
-        <v>209069</v>
+        <v>203034</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="H8" s="7">
         <v>280</v>
       </c>
       <c r="I8" s="7">
-        <v>301332</v>
+        <v>274098</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="M8" s="7">
         <v>432</v>
       </c>
       <c r="N8" s="7">
-        <v>510401</v>
+        <v>477132</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>126</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,7 +6684,7 @@
         <v>300</v>
       </c>
       <c r="D9" s="7">
-        <v>426877</v>
+        <v>422197</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6012,7 +6699,7 @@
         <v>454</v>
       </c>
       <c r="I9" s="7">
-        <v>492805</v>
+        <v>506293</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6027,7 +6714,7 @@
         <v>754</v>
       </c>
       <c r="N9" s="7">
-        <v>919682</v>
+        <v>928490</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6050,46 +6737,46 @@
         <v>307</v>
       </c>
       <c r="D10" s="7">
-        <v>311597</v>
+        <v>302627</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>424</v>
+        <v>481</v>
       </c>
       <c r="H10" s="7">
         <v>348</v>
       </c>
       <c r="I10" s="7">
-        <v>226539</v>
+        <v>210470</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>425</v>
+        <v>482</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>426</v>
+        <v>483</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>427</v>
+        <v>484</v>
       </c>
       <c r="M10" s="7">
         <v>655</v>
       </c>
       <c r="N10" s="7">
-        <v>538137</v>
+        <v>513098</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>428</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,46 +6788,46 @@
         <v>234</v>
       </c>
       <c r="D11" s="7">
-        <v>240551</v>
+        <v>229266</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="H11" s="7">
         <v>491</v>
       </c>
       <c r="I11" s="7">
-        <v>351934</v>
+        <v>327395</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="M11" s="7">
         <v>725</v>
       </c>
       <c r="N11" s="7">
-        <v>592485</v>
+        <v>556660</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>437</v>
+        <v>152</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,7 +6839,7 @@
         <v>541</v>
       </c>
       <c r="D12" s="7">
-        <v>552148</v>
+        <v>531893</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6167,7 +6854,7 @@
         <v>839</v>
       </c>
       <c r="I12" s="7">
-        <v>578473</v>
+        <v>537865</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6182,7 +6869,7 @@
         <v>1380</v>
       </c>
       <c r="N12" s="7">
-        <v>1130622</v>
+        <v>1069758</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6205,46 +6892,46 @@
         <v>453</v>
       </c>
       <c r="D13" s="7">
-        <v>510654</v>
+        <v>682433</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="H13" s="7">
         <v>575</v>
       </c>
       <c r="I13" s="7">
-        <v>377666</v>
+        <v>346980</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>500</v>
       </c>
       <c r="M13" s="7">
         <v>1028</v>
       </c>
       <c r="N13" s="7">
-        <v>888321</v>
+        <v>1029413</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>445</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,46 +6943,46 @@
         <v>202</v>
       </c>
       <c r="D14" s="7">
-        <v>203234</v>
+        <v>195849</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="H14" s="7">
         <v>536</v>
       </c>
       <c r="I14" s="7">
-        <v>340074</v>
+        <v>314923</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>507</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
       <c r="M14" s="7">
         <v>738</v>
       </c>
       <c r="N14" s="7">
-        <v>543307</v>
+        <v>510773</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>453</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,7 +6994,7 @@
         <v>655</v>
       </c>
       <c r="D15" s="7">
-        <v>713888</v>
+        <v>878282</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6322,7 +7009,7 @@
         <v>1111</v>
       </c>
       <c r="I15" s="7">
-        <v>717740</v>
+        <v>661903</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6337,7 +7024,7 @@
         <v>1766</v>
       </c>
       <c r="N15" s="7">
-        <v>1431628</v>
+        <v>1540186</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6360,46 +7047,46 @@
         <v>487</v>
       </c>
       <c r="D16" s="7">
-        <v>440446</v>
+        <v>411576</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="H16" s="7">
         <v>607</v>
       </c>
       <c r="I16" s="7">
-        <v>357475</v>
+        <v>327083</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>205</v>
+        <v>514</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="M16" s="7">
         <v>1094</v>
       </c>
       <c r="N16" s="7">
-        <v>797920</v>
+        <v>738658</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,46 +7098,46 @@
         <v>158</v>
       </c>
       <c r="D17" s="7">
-        <v>143502</v>
+        <v>134536</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="H17" s="7">
         <v>366</v>
       </c>
       <c r="I17" s="7">
-        <v>221175</v>
+        <v>203789</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>523</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="M17" s="7">
         <v>524</v>
       </c>
       <c r="N17" s="7">
-        <v>364678</v>
+        <v>338326</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,7 +7149,7 @@
         <v>645</v>
       </c>
       <c r="D18" s="7">
-        <v>583948</v>
+        <v>546112</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6477,7 +7164,7 @@
         <v>973</v>
       </c>
       <c r="I18" s="7">
-        <v>578650</v>
+        <v>530872</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6492,7 +7179,7 @@
         <v>1618</v>
       </c>
       <c r="N18" s="7">
-        <v>1162598</v>
+        <v>1076984</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6512,49 +7199,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>728</v>
+        <v>414</v>
       </c>
       <c r="D19" s="7">
-        <v>493825</v>
+        <v>270591</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="H19" s="7">
-        <v>1118</v>
+        <v>556</v>
       </c>
       <c r="I19" s="7">
-        <v>708024</v>
+        <v>475405</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="M19" s="7">
-        <v>1846</v>
+        <v>970</v>
       </c>
       <c r="N19" s="7">
-        <v>1201849</v>
+        <v>745996</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>479</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>480</v>
+        <v>536</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,49 +7250,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>259</v>
+        <v>138</v>
       </c>
       <c r="D20" s="7">
-        <v>175506</v>
+        <v>86394</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>483</v>
+        <v>539</v>
       </c>
       <c r="H20" s="7">
-        <v>431</v>
+        <v>226</v>
       </c>
       <c r="I20" s="7">
-        <v>236232</v>
+        <v>111676</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>484</v>
+        <v>540</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>485</v>
+        <v>541</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>486</v>
+        <v>542</v>
       </c>
       <c r="M20" s="7">
-        <v>690</v>
+        <v>364</v>
       </c>
       <c r="N20" s="7">
-        <v>411738</v>
+        <v>198070</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>543</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,10 +7301,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>987</v>
+        <v>552</v>
       </c>
       <c r="D21" s="7">
-        <v>669331</v>
+        <v>356985</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6629,10 +7316,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1549</v>
+        <v>782</v>
       </c>
       <c r="I21" s="7">
-        <v>944256</v>
+        <v>587081</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6644,10 +7331,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2536</v>
+        <v>1334</v>
       </c>
       <c r="N21" s="7">
-        <v>1613587</v>
+        <v>944066</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6661,55 +7348,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2173</v>
+        <v>314</v>
       </c>
       <c r="D22" s="7">
-        <v>2092914</v>
+        <v>190313</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>178</v>
+        <v>511</v>
       </c>
       <c r="H22" s="7">
-        <v>2870</v>
+        <v>562</v>
       </c>
       <c r="I22" s="7">
-        <v>1937128</v>
+        <v>268553</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>452</v>
+        <v>548</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
       <c r="M22" s="7">
-        <v>5043</v>
+        <v>876</v>
       </c>
       <c r="N22" s="7">
-        <v>4030042</v>
+        <v>458866</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,49 +7405,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1123</v>
+        <v>121</v>
       </c>
       <c r="D23" s="7">
-        <v>1226388</v>
+        <v>76927</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>168</v>
+        <v>520</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="H23" s="7">
-        <v>2259</v>
+        <v>205</v>
       </c>
       <c r="I23" s="7">
-        <v>1719416</v>
+        <v>103362</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>555</v>
       </c>
       <c r="M23" s="7">
-        <v>3382</v>
+        <v>326</v>
       </c>
       <c r="N23" s="7">
-        <v>2945804</v>
+        <v>180289</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6769,63 +7456,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>435</v>
+      </c>
+      <c r="D24" s="7">
+        <v>267240</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>767</v>
+      </c>
+      <c r="I24" s="7">
+        <v>371915</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1202</v>
+      </c>
+      <c r="N24" s="7">
+        <v>639155</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>2173</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2208083</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2870</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1929019</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="M25" s="7">
+        <v>5043</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4137102</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1123</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1190155</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2259</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1571159</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3382</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2761314</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3296</v>
       </c>
-      <c r="D24" s="7">
-        <v>3319302</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3398238</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5129</v>
       </c>
-      <c r="I24" s="7">
-        <v>3656544</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3500178</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8425</v>
       </c>
-      <c r="N24" s="7">
-        <v>6975846</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>6898416</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
